--- a/output/45_5_layers_diff_params/full.xlsx
+++ b/output/45_5_layers_diff_params/full.xlsx
@@ -540,7 +540,7 @@
   <dimension ref="A1:U163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+      <selection activeCell="I71" sqref="I71:L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
